--- a/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area3_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area3_Pg.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,7 +375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -383,25 +383,17 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area3_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area3_Pg.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,7 +375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -383,17 +383,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
